--- a/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFDataBars.xlsx
@@ -518,7 +518,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d279bd29-1c16-4e1e-afe3-f09f25236bb6}</x14:id>
+          <x14:id>{61a46fd7-35fd-49eb-a865-b9b8ce7b9454}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -532,7 +532,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2286f5e1-34bd-461f-9fa2-230bf1d22276}</x14:id>
+          <x14:id>{76528df6-0afc-4c86-a5d0-b24a4b2292fe}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -546,7 +546,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e5c9b3e6-d56a-459c-919e-6f617920071f}</x14:id>
+          <x14:id>{a494ef0a-c9af-4590-8cb6-8a316f8d6def}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -560,7 +560,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc7a7100-f6a5-43c8-b184-6f80cdfa20c2}</x14:id>
+          <x14:id>{60a072bc-2260-4dd3-a0af-dfb821fbcf24}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -574,7 +574,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9a7bc8ee-1300-46e0-bd57-68b94062871e}</x14:id>
+          <x14:id>{79fed110-6f4c-4682-a2b0-916675dad5f4}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -588,7 +588,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{56343243-5cae-44cd-a87d-e4a64f8bac10}</x14:id>
+          <x14:id>{b7ae63a1-99c2-4c7b-a470-5cb90fc41cc9}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -602,7 +602,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d279bd29-1c16-4e1e-afe3-f09f25236bb6}">
+          <x14:cfRule type="dataBar" id="{61a46fd7-35fd-49eb-a865-b9b8ce7b9454}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -613,7 +613,7 @@
           <xm:sqref>A2:A6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2286f5e1-34bd-461f-9fa2-230bf1d22276}">
+          <x14:cfRule type="dataBar" id="{76528df6-0afc-4c86-a5d0-b24a4b2292fe}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -628,7 +628,7 @@
           <xm:sqref>B2:B6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e5c9b3e6-d56a-459c-919e-6f617920071f}">
+          <x14:cfRule type="dataBar" id="{a494ef0a-c9af-4590-8cb6-8a316f8d6def}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -643,7 +643,7 @@
           <xm:sqref>C2:C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bc7a7100-f6a5-43c8-b184-6f80cdfa20c2}">
+          <x14:cfRule type="dataBar" id="{60a072bc-2260-4dd3-a0af-dfb821fbcf24}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>50</xm:f>
@@ -658,7 +658,7 @@
           <xm:sqref>D2:D6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9a7bc8ee-1300-46e0-bd57-68b94062871e}">
+          <x14:cfRule type="dataBar" id="{79fed110-6f4c-4682-a2b0-916675dad5f4}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>-SUM($A$2:$E$2)</xm:f>
@@ -673,7 +673,7 @@
           <xm:sqref>E2:E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{56343243-5cae-44cd-a87d-e4a64f8bac10}">
+          <x14:cfRule type="dataBar" id="{b7ae63a1-99c2-4c7b-a470-5cb90fc41cc9}">
             <x14:dataBar minLength="0" maxLength="100" showValue="1" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>30</xm:f>
